--- a/dataExcel/【USP 消音版（StatTrak™） _ 黑莲花 (略有磨损)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【USP 消音版（StatTrak™） _ 黑莲花 (略有磨损)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,1199 +422,1199 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-14 21:29:21</v>
+        <v>2023-09-17 20:27:41</v>
       </c>
       <c r="B8">
-        <v>39.28</v>
+        <v>38.36</v>
       </c>
       <c r="C8">
-        <v>51.98</v>
+        <v>51.94</v>
       </c>
       <c r="D8">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E8">
-        <v>37.7</v>
+        <v>36.1</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 01:10:30</v>
+        <v>2023-09-18 00:07:25</v>
       </c>
       <c r="B9">
-        <v>39.28</v>
+        <v>38.27</v>
       </c>
       <c r="C9">
-        <v>51.91</v>
+        <v>49.32</v>
       </c>
       <c r="D9">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E9">
-        <v>37.7</v>
+        <v>35.7</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 04:50:15</v>
+        <v>2023-09-18 03:42:46</v>
       </c>
       <c r="B10">
-        <v>39.18</v>
+        <v>38.47</v>
       </c>
       <c r="C10">
-        <v>52.25</v>
+        <v>53.1</v>
       </c>
       <c r="D10">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E10">
-        <v>37.7</v>
+        <v>35.79</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-15 08:29:39</v>
+        <v>2023-09-18 07:20:26</v>
       </c>
       <c r="B11">
-        <v>39.08</v>
+        <v>38.47</v>
       </c>
       <c r="C11">
-        <v>51.59</v>
+        <v>52.23</v>
       </c>
       <c r="D11">
         <v>471</v>
       </c>
       <c r="E11">
-        <v>37.7</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-15 12:09:20</v>
+        <v>2023-09-18 11:04:22</v>
       </c>
       <c r="B12">
-        <v>39.18</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>54.58</v>
+        <v>54.92</v>
       </c>
       <c r="D12">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E12">
-        <v>37.4</v>
+        <v>36.29</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 06:52:21</v>
+        <v>2023-09-18 14:45:15</v>
       </c>
       <c r="B13">
-        <v>38.97</v>
+        <v>38.47</v>
       </c>
       <c r="C13">
-        <v>54.71</v>
+        <v>54.99</v>
       </c>
       <c r="D13">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E13">
-        <v>35.7</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 10:57:23</v>
+        <v>2023-09-18 18:24:33</v>
       </c>
       <c r="B14">
-        <v>38.97</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>55.36</v>
       </c>
       <c r="D14">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E14">
-        <v>35.7</v>
+        <v>37.2</v>
       </c>
       <c r="F14">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-16 14:38:10</v>
+        <v>2023-09-18 22:06:53</v>
       </c>
       <c r="B15">
-        <v>38.47</v>
+        <v>39.08</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>54.85</v>
       </c>
       <c r="D15">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E15">
-        <v>35.5</v>
+        <v>37.2</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-16 18:22:15</v>
+        <v>2023-09-19 01:46:56</v>
       </c>
       <c r="B16">
-        <v>38.27</v>
+        <v>39.08</v>
       </c>
       <c r="C16">
-        <v>52.02</v>
+        <v>53.25</v>
       </c>
       <c r="D16">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E16">
-        <v>35.6</v>
+        <v>37.2</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-16 22:10:48</v>
+        <v>2023-09-19 05:25:50</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>39.08</v>
       </c>
       <c r="C17">
-        <v>51.94</v>
+        <v>54.84</v>
       </c>
       <c r="D17">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E17">
-        <v>36</v>
+        <v>37.29</v>
       </c>
       <c r="F17">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 02:00:14</v>
+        <v>2023-09-19 09:00:01</v>
       </c>
       <c r="B18">
-        <v>38.07</v>
+        <v>39.08</v>
       </c>
       <c r="C18">
-        <v>54.2</v>
+        <v>53.82</v>
       </c>
       <c r="D18">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E18">
-        <v>35.6</v>
+        <v>38.2</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 05:37:06</v>
+        <v>2023-09-19 12:41:37</v>
       </c>
       <c r="B19">
-        <v>37.97</v>
+        <v>38.9</v>
       </c>
       <c r="C19">
-        <v>50.85</v>
+        <v>54.77</v>
       </c>
       <c r="D19">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E19">
-        <v>35.7</v>
+        <v>38.2</v>
       </c>
       <c r="F19">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-17 09:23:10</v>
+        <v>2023-09-19 16:25:12</v>
       </c>
       <c r="B20">
-        <v>37.86</v>
+        <v>38.79</v>
       </c>
       <c r="C20">
-        <v>55.28</v>
+        <v>54.84</v>
       </c>
       <c r="D20">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E20">
-        <v>35.7</v>
+        <v>38.2</v>
       </c>
       <c r="F20">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-17 13:09:18</v>
+        <v>2023-09-19 16:31:56</v>
       </c>
       <c r="B21">
-        <v>36.9</v>
+        <v>38.79</v>
       </c>
       <c r="C21">
-        <v>55.21</v>
+        <v>54.84</v>
       </c>
       <c r="D21">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E21">
-        <v>35.7</v>
+        <v>38.2</v>
       </c>
       <c r="F21">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-17 16:50:52</v>
+        <v>2023-09-19 20:12:58</v>
       </c>
       <c r="B22">
-        <v>38.57</v>
+        <v>38.9</v>
       </c>
       <c r="C22">
-        <v>54.99</v>
+        <v>55.13</v>
       </c>
       <c r="D22">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E22">
-        <v>36.1</v>
+        <v>38.2</v>
       </c>
       <c r="F22">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-17 20:27:41</v>
+        <v>2023-09-19 23:56:37</v>
       </c>
       <c r="B23">
-        <v>38.36</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>51.94</v>
+        <v>54.69</v>
       </c>
       <c r="D23">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E23">
-        <v>36.1</v>
+        <v>38.2</v>
       </c>
       <c r="F23">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 00:07:25</v>
+        <v>2023-09-20 03:35:38</v>
       </c>
       <c r="B24">
-        <v>38.27</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>49.32</v>
+        <v>55.42</v>
       </c>
       <c r="D24">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E24">
-        <v>35.7</v>
+        <v>38.2</v>
       </c>
       <c r="F24">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 03:42:46</v>
+        <v>2023-09-20 07:14:05</v>
       </c>
       <c r="B25">
-        <v>38.47</v>
+        <v>38.79</v>
       </c>
       <c r="C25">
-        <v>53.1</v>
+        <v>55.02</v>
       </c>
       <c r="D25">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E25">
-        <v>35.79</v>
+        <v>38.29</v>
       </c>
       <c r="F25">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 07:20:26</v>
+        <v>2023-09-20 10:49:04</v>
       </c>
       <c r="B26">
-        <v>38.47</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>52.23</v>
+        <v>55.53</v>
       </c>
       <c r="D26">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>37.29</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-18 11:04:22</v>
+        <v>2023-09-20 14:27:30</v>
       </c>
       <c r="B27">
-        <v>38</v>
+        <v>38.79</v>
       </c>
       <c r="C27">
-        <v>54.92</v>
+        <v>55.53</v>
       </c>
       <c r="D27">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E27">
-        <v>36.29</v>
+        <v>37.29</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-18 14:45:15</v>
+        <v>2023-09-20 18:08:07</v>
       </c>
       <c r="B28">
-        <v>38.47</v>
+        <v>38.9</v>
       </c>
       <c r="C28">
-        <v>54.99</v>
+        <v>54.66</v>
       </c>
       <c r="D28">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="F28">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-18 18:24:33</v>
+        <v>2023-09-20 21:42:39</v>
       </c>
       <c r="B29">
-        <v>38</v>
+        <v>39.38</v>
       </c>
       <c r="C29">
-        <v>55.36</v>
+        <v>52.54</v>
       </c>
       <c r="D29">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E29">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F29">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-18 22:06:53</v>
+        <v>2023-09-21 01:25:21</v>
       </c>
       <c r="B30">
-        <v>39.08</v>
+        <v>38.79</v>
       </c>
       <c r="C30">
-        <v>54.85</v>
+        <v>53.85</v>
       </c>
       <c r="D30">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E30">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F30">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 01:46:56</v>
+        <v>2023-09-21 05:04:35</v>
       </c>
       <c r="B31">
-        <v>39.08</v>
+        <v>38.79</v>
       </c>
       <c r="C31">
-        <v>53.25</v>
+        <v>51.45</v>
       </c>
       <c r="D31">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E31">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F31">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 05:25:50</v>
+        <v>2023-09-21 08:44:54</v>
       </c>
       <c r="B32">
-        <v>39.08</v>
+        <v>38.79</v>
       </c>
       <c r="C32">
-        <v>54.84</v>
+        <v>51.52</v>
       </c>
       <c r="D32">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E32">
         <v>37.29</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 09:00:01</v>
+        <v>2023-09-21 12:23:18</v>
       </c>
       <c r="B33">
-        <v>39.08</v>
+        <v>38.4</v>
       </c>
       <c r="C33">
-        <v>53.82</v>
+        <v>51.52</v>
       </c>
       <c r="D33">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E33">
-        <v>38.2</v>
+        <v>37.29</v>
       </c>
       <c r="F33">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-19 12:41:37</v>
+        <v>2023-09-21 16:05:32</v>
       </c>
       <c r="B34">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="C34">
-        <v>54.77</v>
+        <v>50.79</v>
       </c>
       <c r="D34">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E34">
-        <v>38.2</v>
+        <v>37.29</v>
       </c>
       <c r="F34">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-19 16:25:12</v>
+        <v>2023-09-21 19:45:33</v>
       </c>
       <c r="B35">
-        <v>38.79</v>
+        <v>38.4</v>
       </c>
       <c r="C35">
-        <v>54.84</v>
+        <v>50.79</v>
       </c>
       <c r="D35">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E35">
-        <v>38.2</v>
+        <v>37.29</v>
       </c>
       <c r="F35">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-19 16:31:56</v>
+        <v>2023-09-21 23:22:25</v>
       </c>
       <c r="B36">
-        <v>38.79</v>
+        <v>37.9</v>
       </c>
       <c r="C36">
-        <v>54.84</v>
+        <v>52.47</v>
       </c>
       <c r="D36">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E36">
-        <v>38.2</v>
+        <v>37.29</v>
       </c>
       <c r="F36">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-19 20:12:58</v>
+        <v>2023-09-22 03:03:39</v>
       </c>
       <c r="B37">
-        <v>38.9</v>
+        <v>37.79</v>
       </c>
       <c r="C37">
-        <v>55.13</v>
+        <v>54.87</v>
       </c>
       <c r="D37">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E37">
-        <v>38.2</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-19 23:56:37</v>
+        <v>2023-09-22 06:43:13</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>37.79</v>
       </c>
       <c r="C38">
-        <v>54.69</v>
+        <v>54.81</v>
       </c>
       <c r="D38">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E38">
-        <v>38.2</v>
+        <v>35.7</v>
       </c>
       <c r="F38">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 03:35:38</v>
+        <v>2023-09-22 10:23:54</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>37.79</v>
       </c>
       <c r="C39">
-        <v>55.42</v>
+        <v>49.55</v>
       </c>
       <c r="D39">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E39">
-        <v>38.2</v>
+        <v>35.6</v>
       </c>
       <c r="F39">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 07:14:05</v>
+        <v>2023-09-22 14:04:18</v>
       </c>
       <c r="B40">
-        <v>38.79</v>
+        <v>37.9</v>
       </c>
       <c r="C40">
-        <v>55.02</v>
+        <v>52.76</v>
       </c>
       <c r="D40">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E40">
-        <v>38.29</v>
+        <v>35.6</v>
       </c>
       <c r="F40">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 10:49:04</v>
+        <v>2023-09-22 17:46:14</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C41">
-        <v>55.53</v>
+        <v>49.84</v>
       </c>
       <c r="D41">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E41">
-        <v>37.29</v>
+        <v>35.79</v>
       </c>
       <c r="F41">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-20 14:27:30</v>
+        <v>2023-09-22 21:22:44</v>
       </c>
       <c r="B42">
-        <v>38.79</v>
+        <v>39.4</v>
       </c>
       <c r="C42">
-        <v>55.53</v>
+        <v>54.44</v>
       </c>
       <c r="D42">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E42">
-        <v>37.29</v>
+        <v>36.4</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-20 18:08:07</v>
+        <v>2023-09-23 01:00:16</v>
       </c>
       <c r="B43">
         <v>38.9</v>
       </c>
       <c r="C43">
-        <v>54.66</v>
+        <v>50.5</v>
       </c>
       <c r="D43">
         <v>473</v>
       </c>
       <c r="E43">
-        <v>37.4</v>
+        <v>35.79</v>
       </c>
       <c r="F43">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-20 21:42:39</v>
+        <v>2023-09-23 04:37:06</v>
       </c>
       <c r="B44">
-        <v>39.38</v>
+        <v>38.89</v>
       </c>
       <c r="C44">
-        <v>52.54</v>
+        <v>51.01</v>
       </c>
       <c r="D44">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E44">
-        <v>37.4</v>
+        <v>36.1</v>
       </c>
       <c r="F44">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 01:25:21</v>
+        <v>2023-09-23 08:17:07</v>
       </c>
       <c r="B45">
-        <v>38.79</v>
+        <v>38.78</v>
       </c>
       <c r="C45">
-        <v>53.85</v>
+        <v>54.37</v>
       </c>
       <c r="D45">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E45">
-        <v>37.4</v>
+        <v>35.9</v>
       </c>
       <c r="F45">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 05:04:35</v>
+        <v>2023-09-23 08:22:57</v>
       </c>
       <c r="B46">
-        <v>38.79</v>
+        <v>38.78</v>
       </c>
       <c r="C46">
-        <v>51.45</v>
+        <v>54.37</v>
       </c>
       <c r="D46">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E46">
-        <v>37.4</v>
+        <v>35.9</v>
       </c>
       <c r="F46">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 08:44:54</v>
+        <v>2023-09-23 12:01:48</v>
       </c>
       <c r="B47">
-        <v>38.79</v>
+        <v>39.4</v>
       </c>
       <c r="C47">
-        <v>51.52</v>
+        <v>54.88</v>
       </c>
       <c r="D47">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E47">
-        <v>37.29</v>
+        <v>36.2</v>
       </c>
       <c r="F47">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 12:23:18</v>
+        <v>2023-09-23 15:40:23</v>
       </c>
       <c r="B48">
-        <v>38.4</v>
+        <v>39.99</v>
       </c>
       <c r="C48">
-        <v>51.52</v>
+        <v>54.3</v>
       </c>
       <c r="D48">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E48">
-        <v>37.29</v>
+        <v>36.7</v>
       </c>
       <c r="F48">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-21 16:05:32</v>
+        <v>2023-09-23 19:18:37</v>
       </c>
       <c r="B49">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>50.79</v>
+        <v>54.3</v>
       </c>
       <c r="D49">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E49">
-        <v>37.29</v>
+        <v>37.4</v>
       </c>
       <c r="F49">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-21 19:45:33</v>
+        <v>2023-09-23 22:57:27</v>
       </c>
       <c r="B50">
-        <v>38.4</v>
+        <v>39.9</v>
       </c>
       <c r="C50">
-        <v>50.79</v>
+        <v>50.72</v>
       </c>
       <c r="D50">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E50">
-        <v>37.29</v>
+        <v>37.2</v>
       </c>
       <c r="F50">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-21 23:22:25</v>
+        <v>2023-09-23 23:01:20</v>
       </c>
       <c r="B51">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="C51">
-        <v>52.47</v>
+        <v>50.72</v>
       </c>
       <c r="D51">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E51">
-        <v>37.29</v>
+        <v>37.1</v>
       </c>
       <c r="F51">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-22 03:03:39</v>
+        <v>2023-09-24 02:36:00</v>
       </c>
       <c r="B52">
-        <v>37.79</v>
+        <v>39.79</v>
       </c>
       <c r="C52">
-        <v>54.87</v>
+        <v>54.3</v>
       </c>
       <c r="D52">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>38.5</v>
       </c>
       <c r="F52">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 06:43:13</v>
+        <v>2023-09-24 06:16:08</v>
       </c>
       <c r="B53">
-        <v>37.79</v>
+        <v>39.79</v>
       </c>
       <c r="C53">
-        <v>54.81</v>
+        <v>53.12</v>
       </c>
       <c r="D53">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E53">
-        <v>35.7</v>
+        <v>38.5</v>
       </c>
       <c r="F53">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 10:23:54</v>
+        <v>2023-09-24 09:54:47</v>
       </c>
       <c r="B54">
-        <v>37.79</v>
+        <v>39.79</v>
       </c>
       <c r="C54">
-        <v>49.55</v>
+        <v>54.87</v>
       </c>
       <c r="D54">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E54">
-        <v>35.6</v>
+        <v>38.5</v>
       </c>
       <c r="F54">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-22 14:04:18</v>
+        <v>2023-09-24 13:32:19</v>
       </c>
       <c r="B55">
-        <v>37.9</v>
+        <v>39.79</v>
       </c>
       <c r="C55">
-        <v>52.76</v>
+        <v>54.73</v>
       </c>
       <c r="D55">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E55">
-        <v>35.6</v>
+        <v>38.5</v>
       </c>
       <c r="F55">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-22 17:46:14</v>
+        <v>2023-09-24 17:09:36</v>
       </c>
       <c r="B56">
-        <v>38.1</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>49.84</v>
+        <v>54.58</v>
       </c>
       <c r="D56">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E56">
-        <v>35.79</v>
+        <v>37.1</v>
       </c>
       <c r="F56">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-22 21:22:44</v>
+        <v>2023-09-24 20:47:44</v>
       </c>
       <c r="B57">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="C57">
-        <v>54.44</v>
+        <v>49.91</v>
       </c>
       <c r="D57">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E57">
-        <v>36.4</v>
+        <v>37</v>
       </c>
       <c r="F57">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 01:00:16</v>
+        <v>2023-09-24 20:54:04</v>
       </c>
       <c r="B58">
-        <v>38.9</v>
+        <v>39.7</v>
       </c>
       <c r="C58">
-        <v>50.5</v>
+        <v>49.91</v>
       </c>
       <c r="D58">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E58">
-        <v>35.79</v>
+        <v>37</v>
       </c>
       <c r="F58">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 04:37:06</v>
+        <v>2023-09-25 00:35:10</v>
       </c>
       <c r="B59">
-        <v>38.89</v>
+        <v>39.6</v>
       </c>
       <c r="C59">
-        <v>51.01</v>
+        <v>54.65</v>
       </c>
       <c r="D59">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E59">
         <v>36.1</v>
       </c>
       <c r="F59">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 08:17:07</v>
+        <v>2023-09-25 04:14:48</v>
       </c>
       <c r="B60">
-        <v>38.78</v>
+        <v>39.5</v>
       </c>
       <c r="C60">
-        <v>54.37</v>
+        <v>52.47</v>
       </c>
       <c r="D60">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E60">
-        <v>35.9</v>
+        <v>35.79</v>
       </c>
       <c r="F60">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 08:22:57</v>
+        <v>2023-09-25 07:54:01</v>
       </c>
       <c r="B61">
-        <v>38.78</v>
+        <v>39.5</v>
       </c>
       <c r="C61">
-        <v>54.37</v>
+        <v>54.87</v>
       </c>
       <c r="D61">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="E61">
-        <v>35.9</v>
+        <v>36.6</v>
       </c>
       <c r="F61">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 12:01:48</v>
+        <v>2023-09-25 11:32:39</v>
       </c>
       <c r="B62">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="C62">
-        <v>54.88</v>
+        <v>54.87</v>
       </c>
       <c r="D62">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="E62">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-23 15:40:23</v>
+        <v>2023-09-25 15:04:53</v>
       </c>
       <c r="B63">
-        <v>39.99</v>
+        <v>39.4</v>
       </c>
       <c r="C63">
-        <v>54.3</v>
+        <v>54.87</v>
       </c>
       <c r="D63">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E63">
         <v>36.7</v>
       </c>
       <c r="F63">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-23 19:18:37</v>
+        <v>2023-09-25 15:09:23</v>
       </c>
       <c r="B64">
-        <v>40</v>
+        <v>39.29</v>
       </c>
       <c r="C64">
-        <v>54.3</v>
+        <v>54.87</v>
       </c>
       <c r="D64">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="E64">
-        <v>37.4</v>
+        <v>36.7</v>
       </c>
       <c r="F64">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-23 22:57:27</v>
+        <v>2023-09-25 18:48:28</v>
       </c>
       <c r="B65">
-        <v>39.9</v>
+        <v>38.79</v>
       </c>
       <c r="C65">
-        <v>50.72</v>
+        <v>52.83</v>
       </c>
       <c r="D65">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E65">
-        <v>37.2</v>
+        <v>36</v>
       </c>
       <c r="F65">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-23 23:01:20</v>
+        <v>2023-09-25 18:54:55</v>
       </c>
       <c r="B66">
-        <v>39.9</v>
+        <v>38.79</v>
       </c>
       <c r="C66">
-        <v>50.72</v>
+        <v>54.87</v>
       </c>
       <c r="D66">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E66">
-        <v>37.1</v>
+        <v>36</v>
       </c>
       <c r="F66">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 02:36:00</v>
+        <v>2023-09-25 22:32:52</v>
       </c>
       <c r="B67">
-        <v>39.79</v>
+        <v>39.29</v>
       </c>
       <c r="C67">
-        <v>54.3</v>
+        <v>54.87</v>
       </c>
       <c r="D67">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="E67">
-        <v>38.5</v>
+        <v>36.29</v>
       </c>
       <c r="F67">
         <v>47</v>
@@ -1622,19 +1622,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 06:16:08</v>
+        <v>2023-09-26 02:08:40</v>
       </c>
       <c r="B68">
-        <v>39.79</v>
+        <v>39.39</v>
       </c>
       <c r="C68">
-        <v>53.12</v>
+        <v>52.83</v>
       </c>
       <c r="D68">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="E68">
-        <v>38.5</v>
+        <v>36.4</v>
       </c>
       <c r="F68">
         <v>47</v>
@@ -1642,179 +1642,179 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-24 09:54:47</v>
+        <v>2023-09-26 02:14:03</v>
       </c>
       <c r="B69">
-        <v>39.79</v>
+        <v>39.39</v>
       </c>
       <c r="C69">
-        <v>54.87</v>
+        <v>52.83</v>
       </c>
       <c r="D69">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E69">
-        <v>38.5</v>
+        <v>36.4</v>
       </c>
       <c r="F69">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-24 13:32:19</v>
+        <v>2023-09-26 05:54:57</v>
       </c>
       <c r="B70">
-        <v>39.79</v>
+        <v>39.4</v>
       </c>
       <c r="C70">
-        <v>54.73</v>
+        <v>53.38</v>
       </c>
       <c r="D70">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E70">
-        <v>38.5</v>
+        <v>36.6</v>
       </c>
       <c r="F70">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-24 17:09:36</v>
+        <v>2023-09-26 09:36:13</v>
       </c>
       <c r="B71">
-        <v>40</v>
+        <v>39.4</v>
       </c>
       <c r="C71">
-        <v>54.58</v>
+        <v>54.11</v>
       </c>
       <c r="D71">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E71">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-24 20:47:44</v>
+        <v>2023-09-26 13:14:14</v>
       </c>
       <c r="B72">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="C72">
-        <v>49.91</v>
+        <v>54.77</v>
       </c>
       <c r="D72">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E72">
         <v>37</v>
       </c>
       <c r="F72">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-24 20:54:04</v>
+        <v>2023-09-26 16:51:23</v>
       </c>
       <c r="B73">
-        <v>39.7</v>
+        <v>39.29</v>
       </c>
       <c r="C73">
-        <v>49.91</v>
+        <v>54.77</v>
       </c>
       <c r="D73">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E73">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 00:35:10</v>
+        <v>2023-09-26 20:27:17</v>
       </c>
       <c r="B74">
-        <v>39.6</v>
+        <v>39.29</v>
       </c>
       <c r="C74">
-        <v>54.65</v>
+        <v>52.21</v>
       </c>
       <c r="D74">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E74">
-        <v>36.1</v>
+        <v>36.7</v>
       </c>
       <c r="F74">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 04:14:48</v>
+        <v>2023-09-27 00:06:25</v>
       </c>
       <c r="B75">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="C75">
-        <v>52.47</v>
+        <v>54.62</v>
       </c>
       <c r="D75">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E75">
-        <v>35.79</v>
+        <v>36.79</v>
       </c>
       <c r="F75">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-25 07:54:01</v>
+        <v>2023-09-27 03:46:03</v>
       </c>
       <c r="B76">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="C76">
-        <v>54.87</v>
+        <v>54.47</v>
       </c>
       <c r="D76">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E76">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F76">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-25 11:32:39</v>
+        <v>2023-09-27 07:28:48</v>
       </c>
       <c r="B77">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="C77">
-        <v>54.87</v>
+        <v>54.25</v>
       </c>
       <c r="D77">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E77">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F77">
         <v>44</v>
@@ -1822,2279 +1822,2279 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-25 15:04:53</v>
+        <v>2023-09-27 11:06:06</v>
       </c>
       <c r="B78">
-        <v>39.4</v>
+        <v>38.7</v>
       </c>
       <c r="C78">
-        <v>54.87</v>
+        <v>54.84</v>
       </c>
       <c r="D78">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E78">
-        <v>36.7</v>
+        <v>36.79</v>
       </c>
       <c r="F78">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-25 15:09:23</v>
+        <v>2023-09-27 14:46:24</v>
       </c>
       <c r="B79">
-        <v>39.29</v>
+        <v>38.4</v>
       </c>
       <c r="C79">
-        <v>54.87</v>
+        <v>54.18</v>
       </c>
       <c r="D79">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="E79">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F79">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-25 18:48:28</v>
+        <v>2023-09-27 18:25:42</v>
       </c>
       <c r="B80">
-        <v>38.79</v>
+        <v>38.29</v>
       </c>
       <c r="C80">
-        <v>52.83</v>
+        <v>55.06</v>
       </c>
       <c r="D80">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="E80">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="F80">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-25 18:54:55</v>
+        <v>2023-09-27 22:06:22</v>
       </c>
       <c r="B81">
-        <v>38.79</v>
+        <v>37.39</v>
       </c>
       <c r="C81">
-        <v>54.87</v>
+        <v>55.06</v>
       </c>
       <c r="D81">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="E81">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="F81">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-25 22:32:52</v>
+        <v>2023-09-28 01:45:14</v>
       </c>
       <c r="B82">
-        <v>39.29</v>
+        <v>37.5</v>
       </c>
       <c r="C82">
-        <v>54.87</v>
+        <v>54.91</v>
       </c>
       <c r="D82">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="E82">
-        <v>36.29</v>
+        <v>37</v>
       </c>
       <c r="F82">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-26 02:08:40</v>
+        <v>2023-09-28 05:22:37</v>
       </c>
       <c r="B83">
-        <v>39.39</v>
+        <v>37.97</v>
       </c>
       <c r="C83">
-        <v>52.83</v>
+        <v>52.2</v>
       </c>
       <c r="D83">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="E83">
-        <v>36.4</v>
+        <v>37</v>
       </c>
       <c r="F83">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-26 02:14:03</v>
+        <v>2023-09-28 09:00:54</v>
       </c>
       <c r="B84">
-        <v>39.39</v>
+        <v>37.88</v>
       </c>
       <c r="C84">
-        <v>52.83</v>
+        <v>54.9</v>
       </c>
       <c r="D84">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="E84">
-        <v>36.4</v>
+        <v>37</v>
       </c>
       <c r="F84">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-26 05:54:57</v>
+        <v>2023-09-28 12:37:35</v>
       </c>
       <c r="B85">
-        <v>39.4</v>
+        <v>37.7</v>
       </c>
       <c r="C85">
-        <v>53.38</v>
+        <v>52.49</v>
       </c>
       <c r="D85">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="E85">
-        <v>36.6</v>
+        <v>37.79</v>
       </c>
       <c r="F85">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-26 09:36:13</v>
+        <v>2023-09-28 16:17:14</v>
       </c>
       <c r="B86">
-        <v>39.4</v>
+        <v>36.9</v>
       </c>
       <c r="C86">
-        <v>54.11</v>
+        <v>51.1</v>
       </c>
       <c r="D86">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="E86">
         <v>36.9</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-26 13:14:14</v>
+        <v>2023-09-28 19:58:35</v>
       </c>
       <c r="B87">
-        <v>39.4</v>
+        <v>36.79</v>
       </c>
       <c r="C87">
-        <v>54.77</v>
+        <v>54.17</v>
       </c>
       <c r="D87">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="E87">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F87">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-26 16:51:23</v>
+        <v>2023-09-28 23:38:46</v>
       </c>
       <c r="B88">
-        <v>39.29</v>
+        <v>36.6</v>
       </c>
       <c r="C88">
-        <v>54.77</v>
+        <v>54.76</v>
       </c>
       <c r="D88">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="E88">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-26 20:27:17</v>
+        <v>2023-09-29 03:16:41</v>
       </c>
       <c r="B89">
-        <v>39.29</v>
+        <v>36.6</v>
       </c>
       <c r="C89">
-        <v>52.21</v>
+        <v>55.05</v>
       </c>
       <c r="D89">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="E89">
-        <v>36.7</v>
+        <v>33.6</v>
       </c>
       <c r="F89">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-27 00:06:25</v>
+        <v>2023-09-29 06:53:18</v>
       </c>
       <c r="B90">
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="C90">
-        <v>54.62</v>
+        <v>53.95</v>
       </c>
       <c r="D90">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="E90">
-        <v>36.79</v>
+        <v>35.2</v>
       </c>
       <c r="F90">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-27 03:46:03</v>
+        <v>2023-09-29 10:31:29</v>
       </c>
       <c r="B91">
+        <v>36.2</v>
+      </c>
+      <c r="C91">
+        <v>60.23</v>
+      </c>
+      <c r="D91">
+        <v>510</v>
+      </c>
+      <c r="E91">
+        <v>35.6</v>
+      </c>
+      <c r="F91">
         <v>39</v>
-      </c>
-      <c r="C91">
-        <v>54.47</v>
-      </c>
-      <c r="D91">
-        <v>485</v>
-      </c>
-      <c r="E91">
-        <v>36.9</v>
-      </c>
-      <c r="F91">
-        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-27 07:28:48</v>
+        <v>2023-09-29 14:08:56</v>
       </c>
       <c r="B92">
-        <v>39</v>
+        <v>36.79</v>
       </c>
       <c r="C92">
-        <v>54.25</v>
+        <v>61.91</v>
       </c>
       <c r="D92">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="E92">
-        <v>36.9</v>
+        <v>35.79</v>
       </c>
       <c r="F92">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-27 11:06:06</v>
+        <v>2023-09-29 17:47:16</v>
       </c>
       <c r="B93">
-        <v>38.7</v>
+        <v>36.29</v>
       </c>
       <c r="C93">
-        <v>54.84</v>
+        <v>53.81</v>
       </c>
       <c r="D93">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="E93">
-        <v>36.79</v>
+        <v>35.7</v>
       </c>
       <c r="F93">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-27 14:46:24</v>
+        <v>2023-09-29 21:29:49</v>
       </c>
       <c r="B94">
-        <v>38.4</v>
+        <v>36.2</v>
       </c>
       <c r="C94">
-        <v>54.18</v>
+        <v>53.08</v>
       </c>
       <c r="D94">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="E94">
-        <v>36.9</v>
+        <v>35.7</v>
       </c>
       <c r="F94">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-27 18:25:42</v>
+        <v>2023-09-30 01:07:57</v>
       </c>
       <c r="B95">
-        <v>38.29</v>
+        <v>36</v>
       </c>
       <c r="C95">
-        <v>55.06</v>
+        <v>56.36</v>
       </c>
       <c r="D95">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="E95">
-        <v>36.9</v>
+        <v>35.6</v>
       </c>
       <c r="F95">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-27 22:06:22</v>
+        <v>2023-09-30 04:44:50</v>
       </c>
       <c r="B96">
-        <v>37.39</v>
+        <v>35.5</v>
       </c>
       <c r="C96">
-        <v>55.06</v>
+        <v>56.83</v>
       </c>
       <c r="D96">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E96">
-        <v>36.9</v>
+        <v>35.6</v>
       </c>
       <c r="F96">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-28 01:45:14</v>
+        <v>2023-09-30 08:26:03</v>
       </c>
       <c r="B97">
-        <v>37.5</v>
+        <v>35.49</v>
       </c>
       <c r="C97">
-        <v>54.91</v>
+        <v>59.9</v>
       </c>
       <c r="D97">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="E97">
-        <v>37</v>
+        <v>35.6</v>
       </c>
       <c r="F97">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-28 05:22:37</v>
+        <v>2023-09-30 08:29:46</v>
       </c>
       <c r="B98">
-        <v>37.97</v>
+        <v>35.49</v>
       </c>
       <c r="C98">
-        <v>52.2</v>
+        <v>59.9</v>
       </c>
       <c r="D98">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="E98">
-        <v>37</v>
+        <v>35.6</v>
       </c>
       <c r="F98">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-28 09:00:54</v>
+        <v>2023-09-30 12:06:41</v>
       </c>
       <c r="B99">
-        <v>37.88</v>
+        <v>35.29</v>
       </c>
       <c r="C99">
-        <v>54.9</v>
+        <v>60.92</v>
       </c>
       <c r="D99">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="E99">
-        <v>37</v>
+        <v>30.1</v>
       </c>
       <c r="F99">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-28 12:37:35</v>
+        <v>2023-09-30 15:42:55</v>
       </c>
       <c r="B100">
-        <v>37.7</v>
+        <v>35.18</v>
       </c>
       <c r="C100">
-        <v>52.49</v>
+        <v>60.99</v>
       </c>
       <c r="D100">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E100">
-        <v>37.79</v>
+        <v>30.1</v>
       </c>
       <c r="F100">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-28 16:17:14</v>
+        <v>2023-09-30 19:21:16</v>
       </c>
       <c r="B101">
-        <v>36.9</v>
+        <v>35</v>
       </c>
       <c r="C101">
-        <v>51.1</v>
+        <v>60.12</v>
       </c>
       <c r="D101">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="E101">
-        <v>36.9</v>
+        <v>34</v>
       </c>
       <c r="F101">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-28 19:58:35</v>
+        <v>2023-09-30 23:04:00</v>
       </c>
       <c r="B102">
-        <v>36.79</v>
+        <v>36</v>
       </c>
       <c r="C102">
-        <v>54.17</v>
+        <v>60.48</v>
       </c>
       <c r="D102">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E102">
-        <v>36.9</v>
+        <v>30.3</v>
       </c>
       <c r="F102">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-28 23:38:46</v>
+        <v>2023-10-01 02:42:34</v>
       </c>
       <c r="B103">
-        <v>36.6</v>
+        <v>35.7</v>
       </c>
       <c r="C103">
-        <v>54.76</v>
+        <v>58.73</v>
       </c>
       <c r="D103">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E103">
-        <v>36.7</v>
+        <v>30.3</v>
       </c>
       <c r="F103">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-29 03:16:41</v>
+        <v>2023-10-01 06:23:47</v>
       </c>
       <c r="B104">
-        <v>36.6</v>
+        <v>35.9</v>
       </c>
       <c r="C104">
-        <v>55.05</v>
+        <v>56.46</v>
       </c>
       <c r="D104">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E104">
-        <v>33.6</v>
+        <v>30.5</v>
       </c>
       <c r="F104">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-29 06:53:18</v>
+        <v>2023-10-01 10:05:20</v>
       </c>
       <c r="B105">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="C105">
-        <v>53.95</v>
+        <v>60.47</v>
       </c>
       <c r="D105">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E105">
-        <v>35.2</v>
+        <v>30.9</v>
       </c>
       <c r="F105">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-29 10:31:29</v>
+        <v>2023-10-01 13:43:40</v>
       </c>
       <c r="B106">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="C106">
-        <v>60.23</v>
+        <v>60.47</v>
       </c>
       <c r="D106">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E106">
-        <v>35.6</v>
+        <v>31.4</v>
       </c>
       <c r="F106">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-29 14:08:56</v>
+        <v>2023-10-01 17:20:12</v>
       </c>
       <c r="B107">
-        <v>36.79</v>
+        <v>36</v>
       </c>
       <c r="C107">
-        <v>61.91</v>
+        <v>58.14</v>
       </c>
       <c r="D107">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E107">
-        <v>35.79</v>
+        <v>31.5</v>
       </c>
       <c r="F107">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-29 17:47:16</v>
+        <v>2023-10-01 20:53:26</v>
       </c>
       <c r="B108">
-        <v>36.29</v>
+        <v>35</v>
       </c>
       <c r="C108">
-        <v>53.81</v>
+        <v>59.6</v>
       </c>
       <c r="D108">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E108">
-        <v>35.7</v>
+        <v>32.5</v>
       </c>
       <c r="F108">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-29 21:29:49</v>
+        <v>2023-10-02 00:34:02</v>
       </c>
       <c r="B109">
-        <v>36.2</v>
+        <v>37</v>
       </c>
       <c r="C109">
-        <v>53.08</v>
+        <v>59.6</v>
       </c>
       <c r="D109">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="E109">
-        <v>35.7</v>
+        <v>33.7</v>
       </c>
       <c r="F109">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-30 01:07:57</v>
+        <v>2023-10-02 04:13:41</v>
       </c>
       <c r="B110">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C110">
-        <v>56.36</v>
+        <v>58.61</v>
       </c>
       <c r="D110">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="E110">
-        <v>35.6</v>
+        <v>33.7</v>
       </c>
       <c r="F110">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-09-30 04:44:50</v>
+        <v>2023-10-02 07:53:44</v>
       </c>
       <c r="B111">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="C111">
-        <v>56.83</v>
+        <v>60.04</v>
       </c>
       <c r="D111">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="E111">
-        <v>35.6</v>
+        <v>33.7</v>
       </c>
       <c r="F111">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-09-30 08:26:03</v>
+        <v>2023-10-02 11:35:44</v>
       </c>
       <c r="B112">
-        <v>35.49</v>
+        <v>39</v>
       </c>
       <c r="C112">
-        <v>59.9</v>
+        <v>65.64</v>
       </c>
       <c r="D112">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="E112">
-        <v>35.6</v>
+        <v>34</v>
       </c>
       <c r="F112">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-09-30 08:29:46</v>
+        <v>2023-10-02 15:16:14</v>
       </c>
       <c r="B113">
-        <v>35.49</v>
+        <v>39.29</v>
       </c>
       <c r="C113">
-        <v>59.9</v>
+        <v>66.79</v>
       </c>
       <c r="D113">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="E113">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F113">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-09-30 12:06:41</v>
+        <v>2023-10-02 18:56:08</v>
       </c>
       <c r="B114">
-        <v>35.29</v>
+        <v>38.78</v>
       </c>
       <c r="C114">
-        <v>60.92</v>
+        <v>58.54</v>
       </c>
       <c r="D114">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="E114">
-        <v>30.1</v>
+        <v>35.6</v>
       </c>
       <c r="F114">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-09-30 15:42:55</v>
+        <v>2023-10-02 22:33:31</v>
       </c>
       <c r="B115">
-        <v>35.18</v>
+        <v>38.2</v>
       </c>
       <c r="C115">
-        <v>60.99</v>
+        <v>58.39</v>
       </c>
       <c r="D115">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E115">
-        <v>30.1</v>
+        <v>35.7</v>
       </c>
       <c r="F115">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-09-30 19:21:16</v>
+        <v>2023-10-03 02:11:45</v>
       </c>
       <c r="B116">
-        <v>35</v>
+        <v>38.29</v>
       </c>
       <c r="C116">
-        <v>60.12</v>
+        <v>63.84</v>
       </c>
       <c r="D116">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="E116">
-        <v>34</v>
+        <v>35.7</v>
       </c>
       <c r="F116">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-09-30 23:04:00</v>
+        <v>2023-10-03 05:46:28</v>
       </c>
       <c r="B117">
-        <v>36</v>
+        <v>38.29</v>
       </c>
       <c r="C117">
-        <v>60.48</v>
+        <v>63.42</v>
       </c>
       <c r="D117">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="E117">
-        <v>30.3</v>
+        <v>35.9</v>
       </c>
       <c r="F117">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-01 02:42:34</v>
+        <v>2023-10-03 09:21:57</v>
       </c>
       <c r="B118">
-        <v>35.7</v>
+        <v>38.88</v>
       </c>
       <c r="C118">
-        <v>58.73</v>
+        <v>65.29</v>
       </c>
       <c r="D118">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E118">
-        <v>30.3</v>
+        <v>35.9</v>
       </c>
       <c r="F118">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-01 06:23:47</v>
+        <v>2023-10-03 13:00:19</v>
       </c>
       <c r="B119">
+        <v>38.88</v>
+      </c>
+      <c r="C119">
+        <v>66.08</v>
+      </c>
+      <c r="D119">
+        <v>485</v>
+      </c>
+      <c r="E119">
         <v>35.9</v>
       </c>
-      <c r="C119">
-        <v>56.46</v>
-      </c>
-      <c r="D119">
-        <v>516</v>
-      </c>
-      <c r="E119">
-        <v>30.5</v>
-      </c>
       <c r="F119">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-01 10:05:20</v>
+        <v>2023-10-03 16:38:23</v>
       </c>
       <c r="B120">
-        <v>35</v>
+        <v>39.9</v>
       </c>
       <c r="C120">
-        <v>60.47</v>
+        <v>65.87</v>
       </c>
       <c r="D120">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="E120">
-        <v>30.9</v>
+        <v>36.6</v>
       </c>
       <c r="F120">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-01 13:43:40</v>
+        <v>2023-10-03 16:45:45</v>
       </c>
       <c r="B121">
-        <v>36.7</v>
+        <v>39.97</v>
       </c>
       <c r="C121">
-        <v>60.47</v>
+        <v>65.87</v>
       </c>
       <c r="D121">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="E121">
-        <v>31.4</v>
+        <v>36.6</v>
       </c>
       <c r="F121">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-01 17:20:12</v>
+        <v>2023-10-03 20:25:09</v>
       </c>
       <c r="B122">
-        <v>36</v>
+        <v>39.96</v>
       </c>
       <c r="C122">
-        <v>58.14</v>
+        <v>58.97</v>
       </c>
       <c r="D122">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="E122">
-        <v>31.5</v>
+        <v>36.79</v>
       </c>
       <c r="F122">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-01 20:53:26</v>
+        <v>2023-10-04 00:05:22</v>
       </c>
       <c r="B123">
-        <v>35</v>
+        <v>39.29</v>
       </c>
       <c r="C123">
-        <v>59.6</v>
+        <v>60.55</v>
       </c>
       <c r="D123">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="E123">
-        <v>32.5</v>
+        <v>36.79</v>
       </c>
       <c r="F123">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-02 00:34:02</v>
+        <v>2023-10-04 03:46:28</v>
       </c>
       <c r="B124">
-        <v>37</v>
+        <v>39.49</v>
       </c>
       <c r="C124">
-        <v>59.6</v>
+        <v>60.82</v>
       </c>
       <c r="D124">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E124">
-        <v>33.7</v>
+        <v>37.5</v>
       </c>
       <c r="F124">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-02 04:13:41</v>
+        <v>2023-10-04 07:25:03</v>
       </c>
       <c r="B125">
-        <v>37</v>
+        <v>39.86</v>
       </c>
       <c r="C125">
-        <v>58.61</v>
+        <v>64.13</v>
       </c>
       <c r="D125">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E125">
-        <v>33.7</v>
+        <v>38.29</v>
       </c>
       <c r="F125">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-02 07:53:44</v>
+        <v>2023-10-04 11:02:54</v>
       </c>
       <c r="B126">
-        <v>37</v>
+        <v>39.86</v>
       </c>
       <c r="C126">
-        <v>60.04</v>
+        <v>66</v>
       </c>
       <c r="D126">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E126">
-        <v>33.7</v>
+        <v>38.29</v>
       </c>
       <c r="F126">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-02 11:35:44</v>
+        <v>2023-10-04 14:39:05</v>
       </c>
       <c r="B127">
-        <v>39</v>
+        <v>39.54</v>
       </c>
       <c r="C127">
-        <v>65.64</v>
+        <v>60.82</v>
       </c>
       <c r="D127">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E127">
-        <v>34</v>
+        <v>38.29</v>
       </c>
       <c r="F127">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-02 15:16:14</v>
+        <v>2023-10-04 14:44:00</v>
       </c>
       <c r="B128">
-        <v>39.29</v>
+        <v>39.44</v>
       </c>
       <c r="C128">
-        <v>66.79</v>
+        <v>60.82</v>
       </c>
       <c r="D128">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E128">
-        <v>35.5</v>
+        <v>38.29</v>
       </c>
       <c r="F128">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-02 18:56:08</v>
+        <v>2023-10-04 18:23:58</v>
       </c>
       <c r="B129">
-        <v>38.78</v>
+        <v>39.86</v>
       </c>
       <c r="C129">
-        <v>58.54</v>
+        <v>66.22</v>
       </c>
       <c r="D129">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E129">
-        <v>35.6</v>
+        <v>38.5</v>
       </c>
       <c r="F129">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-02 22:33:31</v>
+        <v>2023-10-04 22:04:41</v>
       </c>
       <c r="B130">
-        <v>38.2</v>
+        <v>40</v>
       </c>
       <c r="C130">
-        <v>58.39</v>
+        <v>67.15</v>
       </c>
       <c r="D130">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="E130">
-        <v>35.7</v>
+        <v>38.7</v>
       </c>
       <c r="F130">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-03 02:11:45</v>
+        <v>2023-10-05 01:45:23</v>
       </c>
       <c r="B131">
-        <v>38.29</v>
+        <v>40.68</v>
       </c>
       <c r="C131">
-        <v>63.84</v>
+        <v>66.79</v>
       </c>
       <c r="D131">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E131">
-        <v>35.7</v>
+        <v>38.6</v>
       </c>
       <c r="F131">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-03 05:46:28</v>
+        <v>2023-10-05 05:25:50</v>
       </c>
       <c r="B132">
-        <v>38.29</v>
+        <v>40.69</v>
       </c>
       <c r="C132">
-        <v>63.42</v>
+        <v>61.04</v>
       </c>
       <c r="D132">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E132">
-        <v>35.9</v>
+        <v>38.9</v>
       </c>
       <c r="F132">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-03 09:21:57</v>
+        <v>2023-10-05 09:04:38</v>
       </c>
       <c r="B133">
-        <v>38.88</v>
+        <v>40.5</v>
       </c>
       <c r="C133">
-        <v>65.29</v>
+        <v>64.06</v>
       </c>
       <c r="D133">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E133">
-        <v>35.9</v>
+        <v>38.9</v>
       </c>
       <c r="F133">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-03 13:00:19</v>
+        <v>2023-10-05 12:41:38</v>
       </c>
       <c r="B134">
-        <v>38.88</v>
+        <v>40.1</v>
       </c>
       <c r="C134">
-        <v>66.08</v>
+        <v>66.44</v>
       </c>
       <c r="D134">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E134">
-        <v>35.9</v>
+        <v>38.9</v>
       </c>
       <c r="F134">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-03 16:38:23</v>
+        <v>2023-10-05 16:17:50</v>
       </c>
       <c r="B135">
-        <v>39.9</v>
+        <v>38.9</v>
       </c>
       <c r="C135">
-        <v>65.87</v>
+        <v>66.3</v>
       </c>
       <c r="D135">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E135">
-        <v>36.6</v>
+        <v>39</v>
       </c>
       <c r="F135">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-03 16:45:45</v>
+        <v>2023-10-05 19:55:33</v>
       </c>
       <c r="B136">
-        <v>39.97</v>
+        <v>38.9</v>
       </c>
       <c r="C136">
-        <v>65.87</v>
+        <v>56.72</v>
       </c>
       <c r="D136">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E136">
-        <v>36.6</v>
+        <v>39</v>
       </c>
       <c r="F136">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-03 20:25:09</v>
+        <v>2023-10-05 23:35:13</v>
       </c>
       <c r="B137">
-        <v>39.96</v>
+        <v>39</v>
       </c>
       <c r="C137">
-        <v>58.97</v>
+        <v>56.65</v>
       </c>
       <c r="D137">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E137">
-        <v>36.79</v>
+        <v>39.1</v>
       </c>
       <c r="F137">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-04 00:05:22</v>
+        <v>2023-10-06 03:17:09</v>
       </c>
       <c r="B138">
-        <v>39.29</v>
+        <v>39.7</v>
       </c>
       <c r="C138">
-        <v>60.55</v>
+        <v>59.17</v>
       </c>
       <c r="D138">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E138">
-        <v>36.79</v>
+        <v>39.1</v>
       </c>
       <c r="F138">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-04 03:46:28</v>
+        <v>2023-10-06 06:55:22</v>
       </c>
       <c r="B139">
-        <v>39.49</v>
+        <v>39.69</v>
       </c>
       <c r="C139">
-        <v>60.82</v>
+        <v>64.08</v>
       </c>
       <c r="D139">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E139">
-        <v>37.5</v>
+        <v>39.1</v>
       </c>
       <c r="F139">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-04 07:25:03</v>
+        <v>2023-10-06 10:36:10</v>
       </c>
       <c r="B140">
-        <v>39.86</v>
+        <v>39.39</v>
       </c>
       <c r="C140">
-        <v>64.13</v>
+        <v>65.73</v>
       </c>
       <c r="D140">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E140">
-        <v>38.29</v>
+        <v>39.1</v>
       </c>
       <c r="F140">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-04 11:02:54</v>
+        <v>2023-10-06 14:15:40</v>
       </c>
       <c r="B141">
-        <v>39.86</v>
+        <v>39.27</v>
       </c>
       <c r="C141">
-        <v>66</v>
+        <v>64.8</v>
       </c>
       <c r="D141">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E141">
-        <v>38.29</v>
+        <v>39.1</v>
       </c>
       <c r="F141">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-04 14:39:05</v>
+        <v>2023-10-06 17:57:07</v>
       </c>
       <c r="B142">
-        <v>39.54</v>
+        <v>39.27</v>
       </c>
       <c r="C142">
-        <v>60.82</v>
+        <v>60.7</v>
       </c>
       <c r="D142">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E142">
-        <v>38.29</v>
+        <v>39</v>
       </c>
       <c r="F142">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-04 14:44:00</v>
+        <v>2023-10-06 21:35:04</v>
       </c>
       <c r="B143">
-        <v>39.44</v>
+        <v>39.07</v>
       </c>
       <c r="C143">
-        <v>60.82</v>
+        <v>63.58</v>
       </c>
       <c r="D143">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E143">
-        <v>38.29</v>
+        <v>32.7</v>
       </c>
       <c r="F143">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-04 18:23:58</v>
+        <v>2023-10-07 01:12:54</v>
       </c>
       <c r="B144">
-        <v>39.86</v>
+        <v>38.86</v>
       </c>
       <c r="C144">
-        <v>66.22</v>
+        <v>62.57</v>
       </c>
       <c r="D144">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E144">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="F144">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-04 22:04:41</v>
+        <v>2023-10-07 04:49:08</v>
       </c>
       <c r="B145">
         <v>40</v>
       </c>
       <c r="C145">
-        <v>67.15</v>
+        <v>65.62</v>
       </c>
       <c r="D145">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E145">
-        <v>38.7</v>
+        <v>33.2</v>
       </c>
       <c r="F145">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-05 01:45:23</v>
+        <v>2023-10-07 08:26:31</v>
       </c>
       <c r="B146">
-        <v>40.68</v>
+        <v>39.79</v>
       </c>
       <c r="C146">
-        <v>66.79</v>
+        <v>65.7</v>
       </c>
       <c r="D146">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E146">
-        <v>38.6</v>
+        <v>34</v>
       </c>
       <c r="F146">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-05 05:25:50</v>
+        <v>2023-10-07 12:06:23</v>
       </c>
       <c r="B147">
-        <v>40.69</v>
+        <v>39.5</v>
       </c>
       <c r="C147">
-        <v>61.04</v>
+        <v>66.42</v>
       </c>
       <c r="D147">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E147">
-        <v>38.9</v>
+        <v>34.1</v>
       </c>
       <c r="F147">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-05 09:04:38</v>
+        <v>2023-10-07 15:47:16</v>
       </c>
       <c r="B148">
-        <v>40.5</v>
+        <v>39.79</v>
       </c>
       <c r="C148">
-        <v>64.06</v>
+        <v>66.48</v>
       </c>
       <c r="D148">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E148">
-        <v>38.9</v>
+        <v>34</v>
       </c>
       <c r="F148">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-05 12:41:38</v>
+        <v>2023-10-07 19:27:45</v>
       </c>
       <c r="B149">
-        <v>40.1</v>
+        <v>39</v>
       </c>
       <c r="C149">
-        <v>66.44</v>
+        <v>64.04</v>
       </c>
       <c r="D149">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E149">
-        <v>38.9</v>
+        <v>35.1</v>
       </c>
       <c r="F149">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-05 16:17:50</v>
+        <v>2023-10-07 23:05:54</v>
       </c>
       <c r="B150">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="C150">
-        <v>66.3</v>
+        <v>62.67</v>
       </c>
       <c r="D150">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E150">
-        <v>39</v>
+        <v>32.7</v>
       </c>
       <c r="F150">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-05 19:55:33</v>
+        <v>2023-10-08 02:43:51</v>
       </c>
       <c r="B151">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C151">
-        <v>56.72</v>
+        <v>65.62</v>
       </c>
       <c r="D151">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E151">
-        <v>39</v>
+        <v>35.4</v>
       </c>
       <c r="F151">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-05 23:35:13</v>
+        <v>2023-10-08 06:19:55</v>
       </c>
       <c r="B152">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C152">
-        <v>56.65</v>
+        <v>62.24</v>
       </c>
       <c r="D152">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E152">
-        <v>39.1</v>
+        <v>34.29</v>
       </c>
       <c r="F152">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-06 03:17:09</v>
+        <v>2023-10-08 09:58:25</v>
       </c>
       <c r="B153">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="C153">
-        <v>59.17</v>
+        <v>62.52</v>
       </c>
       <c r="D153">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E153">
-        <v>39.1</v>
+        <v>32.79</v>
       </c>
       <c r="F153">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-06 06:55:22</v>
+        <v>2023-10-08 13:36:27</v>
       </c>
       <c r="B154">
-        <v>39.69</v>
+        <v>38.68</v>
       </c>
       <c r="C154">
-        <v>64.08</v>
+        <v>65.62</v>
       </c>
       <c r="D154">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E154">
-        <v>39.1</v>
+        <v>36.1</v>
       </c>
       <c r="F154">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-06 10:36:10</v>
+        <v>2023-10-08 17:19:24</v>
       </c>
       <c r="B155">
-        <v>39.39</v>
+        <v>38.99</v>
       </c>
       <c r="C155">
-        <v>65.73</v>
+        <v>65.54</v>
       </c>
       <c r="D155">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E155">
-        <v>39.1</v>
+        <v>36.29</v>
       </c>
       <c r="F155">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-06 14:15:40</v>
+        <v>2023-10-08 20:58:23</v>
       </c>
       <c r="B156">
-        <v>39.27</v>
+        <v>38.88</v>
       </c>
       <c r="C156">
-        <v>64.8</v>
+        <v>59.21</v>
       </c>
       <c r="D156">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E156">
-        <v>39.1</v>
+        <v>36.4</v>
       </c>
       <c r="F156">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-06 17:57:07</v>
+        <v>2023-10-09 00:39:07</v>
       </c>
       <c r="B157">
-        <v>39.27</v>
+        <v>38.4</v>
       </c>
       <c r="C157">
-        <v>60.7</v>
+        <v>64.18</v>
       </c>
       <c r="D157">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E157">
-        <v>39</v>
+        <v>36.4</v>
       </c>
       <c r="F157">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-06 21:35:04</v>
+        <v>2023-10-09 04:18:04</v>
       </c>
       <c r="B158">
-        <v>39.07</v>
+        <v>38.89</v>
       </c>
       <c r="C158">
-        <v>63.58</v>
+        <v>60.58</v>
       </c>
       <c r="D158">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E158">
-        <v>32.7</v>
+        <v>36.4</v>
       </c>
       <c r="F158">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-07 01:12:54</v>
+        <v>2023-10-09 07:57:50</v>
       </c>
       <c r="B159">
-        <v>38.86</v>
+        <v>38.94</v>
       </c>
       <c r="C159">
-        <v>62.57</v>
+        <v>64.9</v>
       </c>
       <c r="D159">
         <v>484</v>
       </c>
       <c r="E159">
-        <v>34</v>
+        <v>36.6</v>
       </c>
       <c r="F159">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-07 04:49:08</v>
+        <v>2023-10-09 11:37:44</v>
       </c>
       <c r="B160">
-        <v>40</v>
+        <v>38.53</v>
       </c>
       <c r="C160">
-        <v>65.62</v>
+        <v>65.54</v>
       </c>
       <c r="D160">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E160">
-        <v>33.2</v>
+        <v>38</v>
       </c>
       <c r="F160">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-07 08:26:31</v>
+        <v>2023-10-09 15:15:53</v>
       </c>
       <c r="B161">
-        <v>39.79</v>
+        <v>39.97</v>
       </c>
       <c r="C161">
-        <v>65.7</v>
+        <v>65.54</v>
       </c>
       <c r="D161">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E161">
-        <v>34</v>
+        <v>38.1</v>
       </c>
       <c r="F161">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-07 12:06:23</v>
+        <v>2023-10-09 18:57:49</v>
       </c>
       <c r="B162">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="C162">
-        <v>66.42</v>
+        <v>63.82</v>
       </c>
       <c r="D162">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="E162">
-        <v>34.1</v>
+        <v>38.1</v>
       </c>
       <c r="F162">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-07 15:47:16</v>
+        <v>2023-10-09 22:37:12</v>
       </c>
       <c r="B163">
-        <v>39.79</v>
+        <v>41.1</v>
       </c>
       <c r="C163">
-        <v>66.48</v>
+        <v>63.46</v>
       </c>
       <c r="D163">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="E163">
-        <v>34</v>
+        <v>38.2</v>
       </c>
       <c r="F163">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-07 19:27:45</v>
+        <v>2023-10-10 02:17:42</v>
       </c>
       <c r="B164">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C164">
-        <v>64.04</v>
+        <v>65.4</v>
       </c>
       <c r="D164">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E164">
-        <v>35.1</v>
+        <v>40.1</v>
       </c>
       <c r="F164">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-07 23:05:54</v>
+        <v>2023-10-10 05:58:08</v>
       </c>
       <c r="B165">
-        <v>38.7</v>
+        <v>40.9</v>
       </c>
       <c r="C165">
-        <v>62.67</v>
+        <v>61.47</v>
       </c>
       <c r="D165">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="E165">
-        <v>32.7</v>
+        <v>40.1</v>
       </c>
       <c r="F165">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-08 02:43:51</v>
+        <v>2023-10-10 09:37:06</v>
       </c>
       <c r="B166">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="C166">
-        <v>65.62</v>
+        <v>66.43</v>
       </c>
       <c r="D166">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="E166">
-        <v>35.4</v>
+        <v>40.1</v>
       </c>
       <c r="F166">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-08 06:19:55</v>
+        <v>2023-10-10 13:17:52</v>
       </c>
       <c r="B167">
-        <v>38.9</v>
+        <v>40.9</v>
       </c>
       <c r="C167">
-        <v>62.24</v>
+        <v>66.87</v>
       </c>
       <c r="D167">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="E167">
-        <v>34.29</v>
+        <v>40.1</v>
       </c>
       <c r="F167">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-08 09:58:25</v>
+        <v>2023-10-10 16:54:56</v>
       </c>
       <c r="B168">
-        <v>39</v>
+        <v>40.7</v>
       </c>
       <c r="C168">
-        <v>62.52</v>
+        <v>67.3</v>
       </c>
       <c r="D168">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="E168">
-        <v>32.79</v>
+        <v>40.2</v>
       </c>
       <c r="F168">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-08 13:36:27</v>
+        <v>2023-10-10 20:30:49</v>
       </c>
       <c r="B169">
-        <v>38.68</v>
+        <v>40.2</v>
       </c>
       <c r="C169">
-        <v>65.62</v>
+        <v>60.01</v>
       </c>
       <c r="D169">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="E169">
-        <v>36.1</v>
+        <v>40.2</v>
       </c>
       <c r="F169">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-08 17:19:24</v>
+        <v>2023-10-11 00:08:31</v>
       </c>
       <c r="B170">
-        <v>38.99</v>
+        <v>40.49</v>
       </c>
       <c r="C170">
-        <v>65.54</v>
+        <v>67.09</v>
       </c>
       <c r="D170">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="E170">
-        <v>36.29</v>
+        <v>40.2</v>
       </c>
       <c r="F170">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-08 20:58:23</v>
+        <v>2023-10-11 03:46:23</v>
       </c>
       <c r="B171">
-        <v>38.88</v>
+        <v>40.49</v>
       </c>
       <c r="C171">
-        <v>59.21</v>
+        <v>67.16</v>
       </c>
       <c r="D171">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="E171">
-        <v>36.4</v>
+        <v>40</v>
       </c>
       <c r="F171">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-09 00:39:07</v>
+        <v>2023-10-11 07:24:10</v>
       </c>
       <c r="B172">
-        <v>38.4</v>
+        <v>40.49</v>
       </c>
       <c r="C172">
-        <v>64.18</v>
+        <v>66.9</v>
       </c>
       <c r="D172">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E172">
-        <v>36.4</v>
+        <v>40</v>
       </c>
       <c r="F172">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-09 04:18:04</v>
+        <v>2023-10-11 11:01:21</v>
       </c>
       <c r="B173">
-        <v>38.89</v>
+        <v>39.9</v>
       </c>
       <c r="C173">
-        <v>60.58</v>
+        <v>63.84</v>
       </c>
       <c r="D173">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E173">
-        <v>36.4</v>
+        <v>40</v>
       </c>
       <c r="F173">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-09 07:57:50</v>
+        <v>2023-10-11 14:41:00</v>
       </c>
       <c r="B174">
-        <v>38.94</v>
+        <v>39.79</v>
       </c>
       <c r="C174">
-        <v>64.9</v>
+        <v>64.86</v>
       </c>
       <c r="D174">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="E174">
-        <v>36.6</v>
+        <v>40</v>
       </c>
       <c r="F174">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-09 11:37:44</v>
+        <v>2023-10-11 18:21:01</v>
       </c>
       <c r="B175">
-        <v>38.53</v>
+        <v>40</v>
       </c>
       <c r="C175">
-        <v>65.54</v>
+        <v>67.26</v>
       </c>
       <c r="D175">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="E175">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F175">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-09 15:15:53</v>
+        <v>2023-10-11 22:01:32</v>
       </c>
       <c r="B176">
-        <v>39.97</v>
+        <v>40.9</v>
       </c>
       <c r="C176">
-        <v>65.54</v>
+        <v>66.75</v>
       </c>
       <c r="D176">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E176">
-        <v>38.1</v>
+        <v>38.29</v>
       </c>
       <c r="F176">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-09 18:57:49</v>
+        <v>2023-10-12 01:42:20</v>
       </c>
       <c r="B177">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="C177">
-        <v>63.82</v>
+        <v>65.88</v>
       </c>
       <c r="D177">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E177">
-        <v>38.1</v>
+        <v>38.29</v>
       </c>
       <c r="F177">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-09 22:37:12</v>
+        <v>2023-10-12 05:18:53</v>
       </c>
       <c r="B178">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="C178">
-        <v>63.46</v>
+        <v>66.8</v>
       </c>
       <c r="D178">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E178">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F178">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-10 02:17:42</v>
+        <v>2023-10-12 09:00:44</v>
       </c>
       <c r="B179">
-        <v>41</v>
+        <v>38.79</v>
       </c>
       <c r="C179">
-        <v>65.4</v>
+        <v>61.91</v>
       </c>
       <c r="D179">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E179">
-        <v>40.1</v>
+        <v>38.4</v>
       </c>
       <c r="F179">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-10 05:58:08</v>
+        <v>2023-10-12 12:38:33</v>
       </c>
       <c r="B180">
-        <v>40.9</v>
+        <v>40</v>
       </c>
       <c r="C180">
-        <v>61.47</v>
+        <v>65.7</v>
       </c>
       <c r="D180">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E180">
-        <v>40.1</v>
+        <v>38.4</v>
       </c>
       <c r="F180">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-10 09:37:06</v>
+        <v>2023-10-12 16:18:49</v>
       </c>
       <c r="B181">
-        <v>40.9</v>
+        <v>39.9</v>
       </c>
       <c r="C181">
-        <v>66.43</v>
+        <v>58.26</v>
       </c>
       <c r="D181">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E181">
-        <v>40.1</v>
+        <v>38.4</v>
       </c>
       <c r="F181">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-10 13:17:52</v>
+        <v>2023-10-12 20:00:16</v>
       </c>
       <c r="B182">
-        <v>40.9</v>
+        <v>38.79</v>
       </c>
       <c r="C182">
-        <v>66.87</v>
+        <v>62.93</v>
       </c>
       <c r="D182">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E182">
-        <v>40.1</v>
+        <v>38.29</v>
       </c>
       <c r="F182">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-10 16:54:56</v>
+        <v>2023-10-12 23:40:35</v>
       </c>
       <c r="B183">
-        <v>40.7</v>
+        <v>38.79</v>
       </c>
       <c r="C183">
-        <v>67.3</v>
+        <v>64.9</v>
       </c>
       <c r="D183">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E183">
-        <v>40.2</v>
+        <v>38.29</v>
       </c>
       <c r="F183">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-10 20:30:49</v>
+        <v>2023-10-13 03:20:26</v>
       </c>
       <c r="B184">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="C184">
-        <v>60.01</v>
+        <v>66.29</v>
       </c>
       <c r="D184">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="E184">
-        <v>40.2</v>
+        <v>38.4</v>
       </c>
       <c r="F184">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-11 00:08:31</v>
+        <v>2023-10-13 06:56:55</v>
       </c>
       <c r="B185">
-        <v>40.49</v>
+        <v>40.79</v>
       </c>
       <c r="C185">
-        <v>67.09</v>
+        <v>66.02</v>
       </c>
       <c r="D185">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E185">
-        <v>40.2</v>
+        <v>38.4</v>
       </c>
       <c r="F185">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-11 03:46:23</v>
+        <v>2023-10-13 10:32:50</v>
       </c>
       <c r="B186">
-        <v>40.49</v>
+        <v>40</v>
       </c>
       <c r="C186">
-        <v>67.16</v>
+        <v>69.67</v>
       </c>
       <c r="D186">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E186">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="F186">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-11 07:24:10</v>
+        <v>2023-10-13 14:12:08</v>
       </c>
       <c r="B187">
-        <v>40.49</v>
+        <v>40.5</v>
       </c>
       <c r="C187">
-        <v>66.9</v>
+        <v>63.17</v>
       </c>
       <c r="D187">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E187">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="F187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-11 11:01:21</v>
+        <v>2023-10-13 17:50:52</v>
       </c>
       <c r="B188">
         <v>39.9</v>
       </c>
       <c r="C188">
-        <v>63.84</v>
+        <v>66.95</v>
       </c>
       <c r="D188">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E188">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="F188">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-11 14:41:00</v>
+        <v>2023-10-13 21:32:27</v>
       </c>
       <c r="B189">
         <v>39.79</v>
       </c>
       <c r="C189">
-        <v>64.86</v>
+        <v>67.18</v>
       </c>
       <c r="D189">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E189">
-        <v>40</v>
+        <v>38.29</v>
       </c>
       <c r="F189">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-11 18:21:01</v>
+        <v>2023-10-14 01:12:34</v>
       </c>
       <c r="B190">
-        <v>40</v>
+        <v>39.7</v>
       </c>
       <c r="C190">
         <v>67.26</v>
       </c>
       <c r="D190">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E190">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F190">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-11 22:01:32</v>
+        <v>2023-10-14 04:52:36</v>
       </c>
       <c r="B191">
-        <v>40.9</v>
+        <v>40.98</v>
       </c>
       <c r="C191">
-        <v>66.75</v>
+        <v>67.5</v>
       </c>
       <c r="D191">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E191">
-        <v>38.29</v>
+        <v>39.1</v>
       </c>
       <c r="F191">
         <v>43</v>
@@ -4102,19 +4102,19 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-12 01:42:20</v>
+        <v>2023-10-14 04:58:17</v>
       </c>
       <c r="B192">
-        <v>40.6</v>
+        <v>40.98</v>
       </c>
       <c r="C192">
-        <v>65.88</v>
+        <v>67.5</v>
       </c>
       <c r="D192">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E192">
-        <v>38.29</v>
+        <v>39.1</v>
       </c>
       <c r="F192">
         <v>43</v>
@@ -4122,402 +4122,482 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-12 05:18:53</v>
+        <v>2023-10-14 08:35:09</v>
       </c>
       <c r="B193">
-        <v>40.9</v>
+        <v>40.98</v>
       </c>
       <c r="C193">
-        <v>66.8</v>
+        <v>67.58</v>
       </c>
       <c r="D193">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E193">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="F193">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-12 09:00:44</v>
+        <v>2023-10-14 12:13:46</v>
       </c>
       <c r="B194">
-        <v>38.79</v>
+        <v>40.78</v>
       </c>
       <c r="C194">
-        <v>61.91</v>
+        <v>66.33</v>
       </c>
       <c r="D194">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E194">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="F194">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-12 12:38:33</v>
+        <v>2023-10-14 12:17:32</v>
       </c>
       <c r="B195">
-        <v>40</v>
+        <v>40.78</v>
       </c>
       <c r="C195">
-        <v>65.7</v>
+        <v>66.33</v>
       </c>
       <c r="D195">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E195">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="F195">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-12 16:18:49</v>
+        <v>2023-10-14 15:54:35</v>
       </c>
       <c r="B196">
-        <v>39.9</v>
+        <v>39.79</v>
       </c>
       <c r="C196">
-        <v>58.26</v>
+        <v>66.84</v>
       </c>
       <c r="D196">
         <v>457</v>
       </c>
       <c r="E196">
-        <v>38.4</v>
+        <v>39.1</v>
       </c>
       <c r="F196">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-12 20:00:16</v>
+        <v>2023-10-14 19:29:56</v>
       </c>
       <c r="B197">
-        <v>38.79</v>
+        <v>40.4</v>
       </c>
       <c r="C197">
-        <v>62.93</v>
+        <v>66.33</v>
       </c>
       <c r="D197">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E197">
-        <v>38.29</v>
+        <v>39.1</v>
       </c>
       <c r="F197">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-12 23:40:35</v>
+        <v>2023-10-14 23:11:38</v>
       </c>
       <c r="B198">
-        <v>38.79</v>
+        <v>41</v>
       </c>
       <c r="C198">
-        <v>64.9</v>
+        <v>65.02</v>
       </c>
       <c r="D198">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E198">
-        <v>38.29</v>
+        <v>38.4</v>
       </c>
       <c r="F198">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-13 03:20:26</v>
+        <v>2023-10-15 02:50:30</v>
       </c>
       <c r="B199">
-        <v>40</v>
+        <v>40.9</v>
       </c>
       <c r="C199">
-        <v>66.29</v>
+        <v>66.92</v>
       </c>
       <c r="D199">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E199">
         <v>38.4</v>
       </c>
       <c r="F199">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-13 06:56:55</v>
+        <v>2023-10-15 06:31:36</v>
       </c>
       <c r="B200">
-        <v>40.79</v>
+        <v>40.6</v>
       </c>
       <c r="C200">
-        <v>66.02</v>
+        <v>66.03</v>
       </c>
       <c r="D200">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E200">
         <v>38.4</v>
       </c>
       <c r="F200">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-13 10:32:50</v>
+        <v>2023-10-15 10:11:29</v>
       </c>
       <c r="B201">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="C201">
-        <v>69.67</v>
+        <v>67.27</v>
       </c>
       <c r="D201">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E201">
         <v>38.4</v>
       </c>
       <c r="F201">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-13 14:12:08</v>
+        <v>2023-10-15 13:50:27</v>
       </c>
       <c r="B202">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="C202">
-        <v>63.17</v>
+        <v>67.48</v>
       </c>
       <c r="D202">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E202">
         <v>38.4</v>
       </c>
       <c r="F202">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-13 17:50:52</v>
+        <v>2023-10-15 17:31:22</v>
       </c>
       <c r="B203">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="C203">
-        <v>66.95</v>
+        <v>65.88</v>
       </c>
       <c r="D203">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E203">
-        <v>38.4</v>
+        <v>36.5</v>
       </c>
       <c r="F203">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-13 21:32:27</v>
+        <v>2023-10-15 21:07:25</v>
       </c>
       <c r="B204">
-        <v>39.79</v>
+        <v>39.09</v>
       </c>
       <c r="C204">
-        <v>67.18</v>
+        <v>65.23</v>
       </c>
       <c r="D204">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E204">
-        <v>38.29</v>
+        <v>36.9</v>
       </c>
       <c r="F204">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-14 01:12:34</v>
+        <v>2023-10-16 00:44:20</v>
       </c>
       <c r="B205">
-        <v>39.7</v>
+        <v>38.95</v>
       </c>
       <c r="C205">
-        <v>67.26</v>
+        <v>65.15</v>
       </c>
       <c r="D205">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E205">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F205">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-14 04:52:36</v>
+        <v>2023-10-16 04:22:50</v>
       </c>
       <c r="B206">
-        <v>40.98</v>
+        <v>39.08</v>
       </c>
       <c r="C206">
-        <v>67.5</v>
+        <v>62.88</v>
       </c>
       <c r="D206">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E206">
-        <v>39.1</v>
+        <v>38.5</v>
       </c>
       <c r="F206">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-14 04:58:17</v>
+        <v>2023-10-16 08:03:36</v>
       </c>
       <c r="B207">
-        <v>40.98</v>
+        <v>38.9</v>
       </c>
       <c r="C207">
-        <v>67.5</v>
+        <v>68.69</v>
       </c>
       <c r="D207">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E207">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="F207">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-14 08:35:09</v>
+        <v>2023-10-16 11:43:46</v>
       </c>
       <c r="B208">
-        <v>40.98</v>
+        <v>39.4</v>
       </c>
       <c r="C208">
-        <v>67.58</v>
+        <v>68.05</v>
       </c>
       <c r="D208">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="E208">
-        <v>39.1</v>
+        <v>37</v>
       </c>
       <c r="F208">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-14 12:13:46</v>
+        <v>2023-10-16 15:23:10</v>
       </c>
       <c r="B209">
-        <v>40.78</v>
+        <v>40.9</v>
       </c>
       <c r="C209">
-        <v>66.33</v>
+        <v>71.84</v>
       </c>
       <c r="D209">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E209">
-        <v>39.1</v>
+        <v>37.6</v>
       </c>
       <c r="F209">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-14 12:17:32</v>
+        <v>2023-10-16 19:04:20</v>
       </c>
       <c r="B210">
-        <v>40.78</v>
+        <v>39.2</v>
       </c>
       <c r="C210">
-        <v>66.33</v>
+        <v>65.45</v>
       </c>
       <c r="D210">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E210">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="F210">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-14 15:54:35</v>
+        <v>2023-10-16 22:43:54</v>
       </c>
       <c r="B211">
-        <v>39.79</v>
+        <v>39.5</v>
       </c>
       <c r="C211">
-        <v>66.84</v>
+        <v>65.45</v>
       </c>
       <c r="D211">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E211">
-        <v>39.1</v>
+        <v>38.5</v>
       </c>
       <c r="F211">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-14 19:29:56</v>
+        <v>2023-10-17 02:22:00</v>
       </c>
       <c r="B212">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="C212">
-        <v>66.33</v>
+        <v>60.58</v>
       </c>
       <c r="D212">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E212">
-        <v>39.1</v>
+        <v>38.6</v>
       </c>
       <c r="F212">
-        <v>55</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>2023-10-17 06:02:29</v>
+      </c>
+      <c r="B213">
+        <v>42.22</v>
+      </c>
+      <c r="C213">
+        <v>67.84</v>
+      </c>
+      <c r="D213">
+        <v>447</v>
+      </c>
+      <c r="E213">
+        <v>38.79</v>
+      </c>
+      <c r="F213">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>2023-10-17 09:42:29</v>
+      </c>
+      <c r="B214">
+        <v>39.5</v>
+      </c>
+      <c r="C214">
+        <v>68.36</v>
+      </c>
+      <c r="D214">
+        <v>457</v>
+      </c>
+      <c r="E214">
+        <v>38.79</v>
+      </c>
+      <c r="F214">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>2023-10-17 13:24:09</v>
+      </c>
+      <c r="B215">
+        <v>44.3</v>
+      </c>
+      <c r="C215">
+        <v>69.59</v>
+      </c>
+      <c r="D215">
+        <v>429</v>
+      </c>
+      <c r="E215">
+        <v>38.9</v>
+      </c>
+      <c r="F215">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>2023-10-17 17:04:31</v>
+      </c>
+      <c r="B216">
+        <v>42.02</v>
+      </c>
+      <c r="C216">
+        <v>69.81</v>
+      </c>
+      <c r="D216">
+        <v>436</v>
+      </c>
+      <c r="E216">
+        <v>38.9</v>
+      </c>
+      <c r="F216">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4609,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F212"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F216"/>
   </ignoredErrors>
 </worksheet>
 </file>